--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AF8855-3D88-4D84-8FF6-B07A96CABA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FBDF77-13E9-4022-BE4D-D8FFB225129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{067AA1F4-BBE1-4F14-A947-D4FE99479BA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_AgencyObjectGroup_EditProfile</t>
+  </si>
+  <si>
+    <t>UserAgencySelection</t>
+  </si>
+  <si>
+    <t>Select User</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B997C-347D-49A9-B6A7-5C83D3E9D060}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -593,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -601,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -613,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -621,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -633,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -641,50 +647,50 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
@@ -701,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -721,10 +727,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -741,10 +747,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -761,10 +767,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -773,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -781,18 +787,38 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
         <v>1</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FBDF77-13E9-4022-BE4D-D8FFB225129F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B439BBB8-D5EE-45CB-B86D-612D1D1FAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{067AA1F4-BBE1-4F14-A947-D4FE99479BA3}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>TC_PM_COA_SEC_AgencyObjectGroupProfile_DetailsPage</t>
-  </si>
-  <si>
     <t>TC_PM_COA_SEC_AgencyObjectGroup_EditProfile</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Select User</t>
+  </si>
+  <si>
+    <t>TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile</t>
   </si>
 </sst>
 </file>
@@ -529,13 +529,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" customWidth="1"/>
+    <col min="2" max="2" width="52.453125" customWidth="1"/>
     <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -727,7 +727,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>

--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B439BBB8-D5EE-45CB-B86D-612D1D1FAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A0854-4759-46C1-AC6B-D1A62D933F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{067AA1F4-BBE1-4F14-A947-D4FE99479BA3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -102,12 +102,6 @@
     <t>Edit Profile</t>
   </si>
   <si>
-    <t>NextProfile</t>
-  </si>
-  <si>
-    <t>Next Profile</t>
-  </si>
-  <si>
     <t>TC_PM_COA_SEC_DeleteProfile</t>
   </si>
   <si>
@@ -130,6 +124,30 @@
   </si>
   <si>
     <t>TC_PM_COA_SEC_AgencyObjectGroupProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Open next profile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recalling Existing Profile</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
   </si>
 </sst>
 </file>
@@ -526,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B26B997C-347D-49A9-B6A7-5C83D3E9D060}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,10 +605,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -687,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -727,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -747,78 +765,158 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
         <v>1</v>
       </c>
     </row>
